--- a/ResultadoEleicoesDistritos/LISBOA_CASCAIS.xlsx
+++ b/ResultadoEleicoesDistritos/LISBOA_CASCAIS.xlsx
@@ -597,64 +597,64 @@
         <v>53288</v>
       </c>
       <c r="H2" t="n">
-        <v>1988</v>
+        <v>1963</v>
       </c>
       <c r="I2" t="n">
-        <v>5360</v>
+        <v>5317</v>
       </c>
       <c r="J2" t="n">
-        <v>22011</v>
+        <v>21898</v>
       </c>
       <c r="K2" t="n">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L2" t="n">
-        <v>5942</v>
+        <v>6058</v>
       </c>
       <c r="M2" t="n">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="N2" t="n">
-        <v>3860</v>
+        <v>3781</v>
       </c>
       <c r="O2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P2" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="R2" t="n">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="S2" t="n">
-        <v>2440</v>
+        <v>2382</v>
       </c>
       <c r="T2" t="n">
-        <v>3746</v>
+        <v>3902</v>
       </c>
       <c r="U2" t="n">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="V2" t="n">
-        <v>34036</v>
+        <v>33854</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>34114</v>
+        <v>34323</v>
       </c>
       <c r="Y2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z2" t="n">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="AA2" t="n">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
